--- a/medicine/Psychotrope/Bière_brune/Bière_brune.xlsx
+++ b/medicine/Psychotrope/Bière_brune/Bière_brune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_brune</t>
+          <t>Bière_brune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière brune est une bière de couleur brune, du brun acajou au noir ébène, obtenue grâce à l'utilisation de malt plus ou moins torréfié et/ou de colorant (généralement une variété de E150) ou de bière colorante (un brassin non destiné à la consommation directe, brassé avec des malts extrêmement colorés, mélangé avec la bière à colorer) pour les pays interdisant l'utilisation de colorants.
 Elles se caractérisent par une mousse riche et crémeuse, et une grande onctuosité en bouche. lourde acidulées, elles sont généralement amères en finale.
-Issues de malt bien torréfié elles développent des notes empyreumatiques (bois fumé, pain grillé, note torréfiée de type chocolat, café)[1].
+Issues de malt bien torréfié elles développent des notes empyreumatiques (bois fumé, pain grillé, note torréfiée de type chocolat, café).
 Quelques bières brunes : Guinness, Pelforth Brune, Licorne Black, Wendelinus Tenebris, etc.
 </t>
         </is>
